--- a/Cheat Sheet/One Hour RPG Cheat Sheet.xlsx
+++ b/Cheat Sheet/One Hour RPG Cheat Sheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="5715" windowHeight="4695"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="5715" windowHeight="4695" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Abilities" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="81">
   <si>
     <t>South</t>
   </si>
@@ -247,6 +247,21 @@
   </si>
   <si>
     <t>Averages</t>
+  </si>
+  <si>
+    <t>Tier 1</t>
+  </si>
+  <si>
+    <t>Tier 2</t>
+  </si>
+  <si>
+    <t>Tier 3</t>
+  </si>
+  <si>
+    <t>Tier 4</t>
+  </si>
+  <si>
+    <t>Tier 5</t>
   </si>
 </sst>
 </file>
@@ -614,7 +629,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
@@ -1114,10 +1129,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q44"/>
+  <dimension ref="A1:R44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1133,7 +1148,7 @@
     <col min="9" max="9" width="17.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>67</v>
       </c>
@@ -1158,11 +1173,11 @@
       <c r="I1" t="s">
         <v>74</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>63</v>
       </c>
@@ -1190,29 +1205,29 @@
       <c r="I2">
         <v>200</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>67</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>68</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>69</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>70</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>71</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>72</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>63</v>
       </c>
@@ -1240,35 +1255,35 @@
       <c r="I3">
         <v>600</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>1</v>
       </c>
-      <c r="L3" s="5">
-        <f t="shared" ref="L3:L12" si="0">SUM(C2+C13+C24+C35)/4</f>
+      <c r="M3" s="5">
+        <f t="shared" ref="M3:M12" si="0">SUM(C2+C13+C24+C35)/4</f>
         <v>50</v>
       </c>
-      <c r="M3" s="5">
-        <f t="shared" ref="M3:M12" si="1">SUM(D2+D13+D24+D35)/4</f>
+      <c r="N3" s="5">
+        <f t="shared" ref="N3:N12" si="1">SUM(D2+D13+D24+D35)/4</f>
         <v>1</v>
       </c>
-      <c r="N3" s="5">
-        <f t="shared" ref="N3:N12" si="2">SUM(E2+E13+E24+E35)/4</f>
+      <c r="O3" s="5">
+        <f t="shared" ref="O3:O12" si="2">SUM(E2+E13+E24+E35)/4</f>
         <v>10</v>
       </c>
-      <c r="O3" s="5">
-        <f t="shared" ref="O3:O12" si="3">SUM(F2+F13+F24+F35)/4</f>
+      <c r="P3" s="5">
+        <f t="shared" ref="P3:P12" si="3">SUM(F2+F13+F24+F35)/4</f>
         <v>8.25</v>
       </c>
-      <c r="P3" s="5">
-        <f t="shared" ref="P3:P12" si="4">SUM(G2+G13+G24+G35)/4</f>
-        <v>0</v>
-      </c>
-      <c r="Q3" s="4">
-        <f t="shared" ref="Q3:Q12" si="5">SUM(H2+H13+H24+H35)/4</f>
+      <c r="Q3" s="5">
+        <f t="shared" ref="Q3:Q12" si="4">SUM(G2+G13+G24+G35)/4</f>
+        <v>0</v>
+      </c>
+      <c r="R3" s="4">
+        <f t="shared" ref="R3:R12" si="5">SUM(H2+H13+H24+H35)/4</f>
         <v>2.9249999999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>63</v>
       </c>
@@ -1296,35 +1311,38 @@
       <c r="I4">
         <v>1200</v>
       </c>
-      <c r="K4" s="6">
+      <c r="K4" t="s">
+        <v>76</v>
+      </c>
+      <c r="L4" s="6">
         <v>2</v>
       </c>
-      <c r="L4" s="7">
+      <c r="M4" s="7">
         <f t="shared" si="0"/>
         <v>83.75</v>
       </c>
-      <c r="M4" s="7">
+      <c r="N4" s="7">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="N4" s="7">
+      <c r="O4" s="7">
         <f t="shared" si="2"/>
         <v>14.25</v>
       </c>
-      <c r="O4" s="7">
+      <c r="P4" s="7">
         <f t="shared" si="3"/>
         <v>15</v>
       </c>
-      <c r="P4" s="7">
+      <c r="Q4" s="7">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q4" s="8">
+      <c r="R4" s="8">
         <f t="shared" si="5"/>
         <v>2.8250000000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>63</v>
       </c>
@@ -1352,35 +1370,35 @@
       <c r="I5">
         <v>2000</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>3</v>
       </c>
-      <c r="L5" s="5">
+      <c r="M5" s="5">
         <f t="shared" si="0"/>
         <v>117.5</v>
       </c>
-      <c r="M5" s="5">
+      <c r="N5" s="5">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="N5" s="5">
+      <c r="O5" s="5">
         <f t="shared" si="2"/>
         <v>18.5</v>
       </c>
-      <c r="O5" s="5">
+      <c r="P5" s="5">
         <f t="shared" si="3"/>
         <v>21</v>
       </c>
-      <c r="P5" s="5">
+      <c r="Q5" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q5" s="4">
+      <c r="R5" s="4">
         <f t="shared" si="5"/>
         <v>2.75</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>63</v>
       </c>
@@ -1408,35 +1426,38 @@
       <c r="I6">
         <v>3000</v>
       </c>
-      <c r="K6" s="6">
+      <c r="K6" t="s">
+        <v>77</v>
+      </c>
+      <c r="L6" s="6">
         <v>4</v>
       </c>
-      <c r="L6" s="7">
+      <c r="M6" s="7">
         <f t="shared" si="0"/>
         <v>151.25</v>
       </c>
-      <c r="M6" s="7">
+      <c r="N6" s="7">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="N6" s="7">
+      <c r="O6" s="7">
         <f t="shared" si="2"/>
         <v>22.75</v>
       </c>
-      <c r="O6" s="7">
+      <c r="P6" s="7">
         <f t="shared" si="3"/>
         <v>27</v>
       </c>
-      <c r="P6" s="7">
+      <c r="Q6" s="7">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q6" s="8">
+      <c r="R6" s="8">
         <f t="shared" si="5"/>
         <v>2.7249999999999996</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>63</v>
       </c>
@@ -1464,35 +1485,35 @@
       <c r="I7">
         <v>4100</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>5</v>
       </c>
-      <c r="L7" s="5">
+      <c r="M7" s="5">
         <f t="shared" si="0"/>
         <v>185</v>
       </c>
-      <c r="M7" s="5">
+      <c r="N7" s="5">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="N7" s="5">
+      <c r="O7" s="5">
         <f t="shared" si="2"/>
         <v>27</v>
       </c>
-      <c r="O7" s="5">
+      <c r="P7" s="5">
         <f t="shared" si="3"/>
         <v>33</v>
       </c>
-      <c r="P7" s="5">
+      <c r="Q7" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q7" s="4">
+      <c r="R7" s="4">
         <f t="shared" si="5"/>
         <v>2.625</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>63</v>
       </c>
@@ -1520,35 +1541,38 @@
       <c r="I8">
         <v>5300</v>
       </c>
-      <c r="K8" s="6">
+      <c r="K8" t="s">
+        <v>78</v>
+      </c>
+      <c r="L8" s="6">
         <v>6</v>
       </c>
-      <c r="L8" s="7">
+      <c r="M8" s="7">
         <f t="shared" si="0"/>
         <v>218.75</v>
       </c>
-      <c r="M8" s="7">
+      <c r="N8" s="7">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="N8" s="7">
+      <c r="O8" s="7">
         <f t="shared" si="2"/>
         <v>31.25</v>
       </c>
-      <c r="O8" s="7">
+      <c r="P8" s="7">
         <f t="shared" si="3"/>
         <v>39</v>
       </c>
-      <c r="P8" s="7">
+      <c r="Q8" s="7">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q8" s="8">
+      <c r="R8" s="8">
         <f t="shared" si="5"/>
         <v>2.5750000000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>63</v>
       </c>
@@ -1576,35 +1600,35 @@
       <c r="I9">
         <v>6600</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>7</v>
       </c>
-      <c r="L9" s="5">
+      <c r="M9" s="5">
         <f t="shared" si="0"/>
         <v>252.5</v>
       </c>
-      <c r="M9" s="5">
+      <c r="N9" s="5">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="N9" s="5">
+      <c r="O9" s="5">
         <f t="shared" si="2"/>
         <v>35.5</v>
       </c>
-      <c r="O9" s="5">
+      <c r="P9" s="5">
         <f t="shared" si="3"/>
         <v>45</v>
       </c>
-      <c r="P9" s="5">
+      <c r="Q9" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q9" s="4">
+      <c r="R9" s="4">
         <f t="shared" si="5"/>
         <v>2.4750000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>63</v>
       </c>
@@ -1632,35 +1656,38 @@
       <c r="I10">
         <v>8000</v>
       </c>
-      <c r="K10" s="6">
+      <c r="K10" t="s">
+        <v>79</v>
+      </c>
+      <c r="L10" s="6">
         <v>8</v>
       </c>
-      <c r="L10" s="7">
+      <c r="M10" s="7">
         <f t="shared" si="0"/>
         <v>286.25</v>
       </c>
-      <c r="M10" s="7">
+      <c r="N10" s="7">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="N10" s="7">
+      <c r="O10" s="7">
         <f t="shared" si="2"/>
         <v>39.75</v>
       </c>
-      <c r="O10" s="7">
+      <c r="P10" s="7">
         <f t="shared" si="3"/>
         <v>51</v>
       </c>
-      <c r="P10" s="7">
+      <c r="Q10" s="7">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q10" s="8">
+      <c r="R10" s="8">
         <f t="shared" si="5"/>
         <v>2.4500000000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>63</v>
       </c>
@@ -1688,64 +1715,67 @@
       <c r="I11">
         <v>9500</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>9</v>
       </c>
-      <c r="L11" s="5">
+      <c r="M11" s="5">
         <f t="shared" si="0"/>
         <v>320</v>
       </c>
-      <c r="M11" s="5">
+      <c r="N11" s="5">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="N11" s="5">
+      <c r="O11" s="5">
         <f t="shared" si="2"/>
         <v>44</v>
       </c>
-      <c r="O11" s="5">
+      <c r="P11" s="5">
         <f t="shared" si="3"/>
         <v>57.25</v>
       </c>
-      <c r="P11" s="5">
+      <c r="Q11" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q11" s="4">
+      <c r="R11" s="4">
         <f t="shared" si="5"/>
         <v>2.3499999999999996</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="K12">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="K12" t="s">
+        <v>80</v>
+      </c>
+      <c r="L12">
         <v>10</v>
       </c>
-      <c r="L12" s="5">
+      <c r="M12" s="5">
         <f t="shared" si="0"/>
         <v>353.75</v>
       </c>
-      <c r="M12" s="5">
+      <c r="N12" s="5">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="N12" s="5">
+      <c r="O12" s="5">
         <f t="shared" si="2"/>
         <v>48.25</v>
       </c>
-      <c r="O12" s="5">
+      <c r="P12" s="5">
         <f t="shared" si="3"/>
         <v>63.75</v>
       </c>
-      <c r="P12" s="5">
+      <c r="Q12" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q12" s="4">
+      <c r="R12" s="4">
         <f t="shared" si="5"/>
         <v>2.25</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>64</v>
       </c>
@@ -1774,7 +1804,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>64</v>
       </c>
@@ -1803,7 +1833,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>64</v>
       </c>
@@ -1832,7 +1862,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>64</v>
       </c>
